--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3344.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3344.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18978140931542</v>
+        <v>1.200886964797974</v>
       </c>
       <c r="B1">
-        <v>2.845048052249729</v>
+        <v>3.780808448791504</v>
       </c>
       <c r="C1">
-        <v>7.582090378981745</v>
+        <v>3.264467239379883</v>
       </c>
       <c r="D1">
-        <v>2.104221159492258</v>
+        <v>2.598045825958252</v>
       </c>
       <c r="E1">
-        <v>1.191457724733031</v>
+        <v>1.2761470079422</v>
       </c>
     </row>
   </sheetData>
